--- a/training/output/Resnet34_ViT/P/P0_P1.xlsx
+++ b/training/output/Resnet34_ViT/P/P0_P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8760964912280702</v>
+        <v>0.6248179271708684</v>
       </c>
       <c r="B2" t="n">
-        <v>1.709396404132508</v>
+        <v>1.554918695898617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.8434453781512605</v>
       </c>
       <c r="B3" t="n">
-        <v>1.510079490511041</v>
+        <v>1.250334164675544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.893669467787115</v>
       </c>
       <c r="B4" t="n">
-        <v>1.474047690107111</v>
+        <v>1.102058263385997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9197759103641456</v>
       </c>
       <c r="B5" t="n">
-        <v>1.432652736964979</v>
+        <v>0.9777659388149486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9391876750700279</v>
       </c>
       <c r="B6" t="n">
-        <v>1.432149732322024</v>
+        <v>0.9023408223600948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.95</v>
       </c>
       <c r="B7" t="n">
-        <v>1.42427568895775</v>
+        <v>0.8692118315135732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.956470588235294</v>
       </c>
       <c r="B8" t="n">
-        <v>1.434802318874158</v>
+        <v>0.8219099325292251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.953893557422969</v>
       </c>
       <c r="B9" t="n">
-        <v>1.430821029763473</v>
+        <v>0.7933231592178345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.956470588235294</v>
       </c>
       <c r="B10" t="n">
-        <v>1.409740111284089</v>
+        <v>0.7825990038759568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B11" t="n">
-        <v>1.428560604128921</v>
+        <v>0.7604284987730139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B12" t="n">
-        <v>1.418735661004719</v>
+        <v>0.7533801513559678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.958235294117647</v>
       </c>
       <c r="B13" t="n">
-        <v>1.425159100900617</v>
+        <v>0.7472061620039099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9617647058823531</v>
       </c>
       <c r="B14" t="n">
-        <v>1.426990084480821</v>
+        <v>0.7425673919565537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9617647058823531</v>
       </c>
       <c r="B15" t="n">
-        <v>1.408720775654442</v>
+        <v>0.7465024380122914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9617647058823529</v>
       </c>
       <c r="B16" t="n">
-        <v>1.413306740292332</v>
+        <v>0.736500645385069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B17" t="n">
-        <v>1.397780073316474</v>
+        <v>0.7309723215944627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9617647058823529</v>
       </c>
       <c r="B18" t="n">
-        <v>1.400574759433144</v>
+        <v>0.7275455348631915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B19" t="n">
-        <v>1.407235720701385</v>
+        <v>0.7288167301346274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B20" t="n">
-        <v>1.476576351282889</v>
+        <v>0.7261182630763334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B21" t="n">
-        <v>1.441586145183496</v>
+        <v>0.7257977478644427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B22" t="n">
-        <v>1.410577617193523</v>
+        <v>0.7236049280447119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B23" t="n">
-        <v>1.399018390136853</v>
+        <v>0.7248895518920001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B24" t="n">
-        <v>1.402459859848022</v>
+        <v>0.7211963604478275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B25" t="n">
-        <v>1.412660799528423</v>
+        <v>0.7194617811371299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B26" t="n">
-        <v>1.398625162609836</v>
+        <v>0.718090741073384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9668347338935573</v>
       </c>
       <c r="B27" t="n">
-        <v>1.401283469116479</v>
+        <v>0.7170061854755178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9680112044817927</v>
       </c>
       <c r="B28" t="n">
-        <v>1.406713316315099</v>
+        <v>0.7165003068306867</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B29" t="n">
-        <v>1.402721246083577</v>
+        <v>0.7268188736018013</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.9576470588235295</v>
       </c>
       <c r="B30" t="n">
-        <v>1.413138121889349</v>
+        <v>0.7463831901550293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B31" t="n">
-        <v>1.401588557059305</v>
+        <v>0.7203649773317224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B32" t="n">
-        <v>1.399600129378469</v>
+        <v>0.7200236495803384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B33" t="n">
-        <v>1.409059516170569</v>
+        <v>0.7200574699570151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9660087719298246</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B34" t="n">
-        <v>1.418600615702177</v>
+        <v>0.7166131173863131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B35" t="n">
-        <v>1.408580292735183</v>
+        <v>0.7141718583948472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9699999999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1.397833978920652</v>
+        <v>0.7148645274779376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B37" t="n">
-        <v>1.404466698044225</v>
+        <v>0.7116438536082997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B38" t="n">
-        <v>1.397814006136175</v>
+        <v>0.7126401627764982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B39" t="n">
-        <v>1.396630571599592</v>
+        <v>0.7100802870357737</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B40" t="n">
-        <v>1.395480839829696</v>
+        <v>0.7133944630622864</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B41" t="n">
-        <v>1.390074014663696</v>
+        <v>0.7113822628470028</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B42" t="n">
-        <v>1.391842651785466</v>
+        <v>0.7108216986936682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B43" t="n">
-        <v>1.3929911370863</v>
+        <v>0.7174428911770091</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B44" t="n">
-        <v>1.390867816774469</v>
+        <v>0.7168647401473102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B45" t="n">
-        <v>1.390069110351696</v>
+        <v>0.7136968304129208</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B46" t="n">
-        <v>1.390966419588056</v>
+        <v>0.71282477238599</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B47" t="n">
-        <v>1.394595100168596</v>
+        <v>0.7117519518908333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9747807017543859</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B48" t="n">
-        <v>1.397330160726581</v>
+        <v>0.7101471108548781</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B49" t="n">
-        <v>1.402117131049173</v>
+        <v>0.7117404552067027</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9495614035087719</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B50" t="n">
-        <v>1.394473274548848</v>
+        <v>0.7105024877716514</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B51" t="n">
-        <v>1.395946013300042</v>
+        <v>0.7109900257166695</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B52" t="n">
-        <v>1.406200797934281</v>
+        <v>0.71804138842751</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9100877192982456</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B53" t="n">
-        <v>1.399365673985398</v>
+        <v>0.7115450431318844</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9517543859649122</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407083034515381</v>
+        <v>0.7117860562661115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B55" t="n">
-        <v>1.417667422378272</v>
+        <v>0.7107885094249949</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B56" t="n">
-        <v>1.409888744354248</v>
+        <v>0.7111663362559151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9670588235294119</v>
       </c>
       <c r="B57" t="n">
-        <v>1.398711286093059</v>
+        <v>0.7079200358951793</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B58" t="n">
-        <v>1.395875646356951</v>
+        <v>0.7109303789980271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9725877192982456</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B59" t="n">
-        <v>1.394954790148819</v>
+        <v>0.7104741054422715</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9703947368421053</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B60" t="n">
-        <v>1.452467983229119</v>
+        <v>0.7088118265656864</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B61" t="n">
-        <v>1.395962999578108</v>
+        <v>0.7084247049163369</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B62" t="n">
-        <v>1.397440975172478</v>
+        <v>0.7107206618084627</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B63" t="n">
-        <v>1.395479957262675</v>
+        <v>0.7074770857306087</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9550438596491229</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390030528369703</v>
+        <v>0.7082843990886912</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3959128375639</v>
+        <v>0.7062619223314173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9671052631578947</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B66" t="n">
-        <v>1.420672023505495</v>
+        <v>0.70729959712309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B67" t="n">
-        <v>1.392085495748018</v>
+        <v>0.7088617752580082</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390032586298491</v>
+        <v>0.7080216653206769</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390127133904842</v>
+        <v>0.7063696664922378</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389717131330256</v>
+        <v>0.7057115084984723</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9682017543859649</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B71" t="n">
-        <v>1.422661375581173</v>
+        <v>0.7087959682240206</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B72" t="n">
-        <v>1.395639722807366</v>
+        <v>0.7087539469494539</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B73" t="n">
-        <v>1.447528686439782</v>
+        <v>0.7074826009133283</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9694117647058824</v>
       </c>
       <c r="B74" t="n">
-        <v>1.390475112095214</v>
+        <v>0.7053665764191571</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9688235294117646</v>
       </c>
       <c r="B75" t="n">
-        <v>1.399018990366082</v>
+        <v>0.706761616117814</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.944078947368421</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B76" t="n">
-        <v>1.392002509351362</v>
+        <v>0.7144582867622375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9403641456582632</v>
       </c>
       <c r="B77" t="n">
-        <v>1.390243312768769</v>
+        <v>0.7794747212353874</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B78" t="n">
-        <v>1.393141503919635</v>
+        <v>0.7157283600638894</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B79" t="n">
-        <v>1.389731108096608</v>
+        <v>0.7123452074387494</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B80" t="n">
-        <v>1.389388960704469</v>
+        <v>0.7141019456526813</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B81" t="n">
-        <v>1.451666392778096</v>
+        <v>0.7109314063016106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.930921052631579</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B82" t="n">
-        <v>1.403976266844231</v>
+        <v>0.7080476108719321</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9528508771929824</v>
+        <v>0.9674229691876749</v>
       </c>
       <c r="B83" t="n">
-        <v>1.391845514899806</v>
+        <v>0.7106320963186377</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9287280701754386</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B84" t="n">
-        <v>1.41285586984534</v>
+        <v>0.7124646235914791</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9287280701754386</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B85" t="n">
-        <v>1.395412503627309</v>
+        <v>0.7097925193169538</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9676470588235294</v>
       </c>
       <c r="B86" t="n">
-        <v>1.404502048827054</v>
+        <v>0.7124849242322585</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B87" t="n">
-        <v>1.396536406717802</v>
+        <v>0.7167725808480206</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B88" t="n">
-        <v>1.443246423152455</v>
+        <v>0.7108486505115733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9506578947368421</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B89" t="n">
-        <v>1.394230474505508</v>
+        <v>0.7105486428036409</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9594298245614035</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B90" t="n">
-        <v>1.407297324715999</v>
+        <v>0.7116952854044297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B91" t="n">
-        <v>1.398935644250167</v>
+        <v>0.7118679810972774</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9658823529411765</v>
       </c>
       <c r="B92" t="n">
-        <v>1.389664189857349</v>
+        <v>0.7091464295106775</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B93" t="n">
-        <v>1.390912890434265</v>
+        <v>0.7085777906810536</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B94" t="n">
-        <v>1.389018318109345</v>
+        <v>0.7096917664303499</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B95" t="n">
-        <v>1.393242242043478</v>
+        <v>0.7102248668670654</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9627192982456141</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388318388085616</v>
+        <v>0.7092019635088304</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9638157894736842</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B97" t="n">
-        <v>1.404050931595919</v>
+        <v>0.707516775411718</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B98" t="n">
-        <v>1.409861915989926</v>
+        <v>0.7087507598540362</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9364035087719298</v>
+        <v>0.9664705882352941</v>
       </c>
       <c r="B99" t="n">
-        <v>1.400079317260207</v>
+        <v>0.7073756736867568</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9451754385964912</v>
+        <v>0.9682352941176471</v>
       </c>
       <c r="B100" t="n">
-        <v>1.405662367218419</v>
+        <v>0.7066496505456812</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9375</v>
+        <v>0.9670588235294116</v>
       </c>
       <c r="B101" t="n">
-        <v>1.39211784956748</v>
+        <v>0.7067471006337334</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7067446848925423</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7058804666294771</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7048651400734397</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7048431354410508</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7056552872938269</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7040563436115489</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7046751379966736</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7062287120258107</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7049379173447105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7050685707260581</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7050118060672984</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7032539914636051</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7052665037267348</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7046664707800921</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7038802890216603</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7057102462824654</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7061492064419914</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7047972854445962</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7061665619120878</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7061963081359863</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7041435907868778</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.703365799258737</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7052558730630314</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7052575490053963</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7035120550323936</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7033922286594615</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7031614920672249</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7025681488654193</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7039412891163546</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7045526153901044</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.703873006736531</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7026123930426205</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7044808759408838</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7050767996731926</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7020292492473826</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7033303274827845</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7028965003350202</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7024333021220039</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7034256598528694</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7022407861316905</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.702001014176537</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7052217511569753</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7035150808446547</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7028046741205103</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7029022889978745</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7027817088014939</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7018106229165021</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7024085136020884</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7015947419054368</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7030531027737785</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7029771349009346</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7030506765141207</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7032695342512691</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7023783746887656</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7021425015786115</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9670588235294119</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7019121085896212</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7032763116499957</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7019754157346838</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7020117991110858</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.702484081773197</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7023600795689751</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7025450292755576</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7031052112579346</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7015980972963221</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7017215805895188</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7040762235136593</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7015197382253759</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7017606461749357</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.70093273415285</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7017859500997207</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7021727772320018</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7021338624112746</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9699999999999999</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7032216506845811</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9670588235294119</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7046798046897439</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7037732811535106</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.702729723032783</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7026383421000313</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7025368353899788</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9694117647058824</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7046406970304602</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.702614030417274</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7018409055822036</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7024660145535189</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7032425017917857</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9682352941176471</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7028239614823285</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7020099618855644</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7020388736444361</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.701639967806199</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9676470588235294</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.712091021678027</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9441176470588236</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8196986738373252</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9629411764705883</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7143768072128296</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7074529598740971</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7062240698758293</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7064956707112929</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7034268870073206</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7050174124100629</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7039782159468707</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7042523903005263</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9670588235294116</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7039317523731905</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7046033143997192</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9658823529411765</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7039495881866006</v>
       </c>
     </row>
   </sheetData>
